--- a/TestData/FCCB_TBCL_YWX_data.xlsx
+++ b/TestData/FCCB_TBCL_YWX_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D6B961-0A74-41EC-BCA7-EF8269A81186}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE94E3C-1C69-49E3-903E-E8623066E084}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="194">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,10 +682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,61 +766,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FCCB_TB_YWX_1137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HXXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待双核审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drbz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmbz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbr_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbr_xb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbr_zjlx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbr_zjhm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbr_csrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbr_zygz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101199003148077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被保人地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbr_jtdz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06201901137202000000000655</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>FCCB_TB_YWX_1137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HXXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待双核审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06201901137202000000000647</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知异常java.net.SocketTimeoutException: timeout
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_YWX_1134_1_异常截屏_20200729035826343.png</t>
+  </si>
+  <si>
+    <t>未知异常Timed out after 10 seconds. Unable to locate the element</t>
+  </si>
+  <si>
+    <t>06201901134202000000000389</t>
+  </si>
+  <si>
+    <t>未知异常java.net.SocketTimeoutException: Read timed out
 Build info: version: '3.9.0', revision: '698b3178f0', time: '2018-02-05T14:26:55.441Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.96.41', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.91.235', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
 Driver info: driver.version: RemoteWebDriver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drbz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jmbz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06201901134202000000000387</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_YWX_1134_1_异常截屏_20200729123336678.png</t>
-  </si>
-  <si>
-    <t>未知异常null</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_YWX_1137_1_异常截屏_20200729040928621.png</t>
+  </si>
+  <si>
+    <t>06201901134202000000000390</t>
+  </si>
+  <si>
+    <t>06201901137202000000000656</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -1279,65 +1327,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:DI4"/>
+  <dimension ref="A1:DP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BJ3" sqref="BJ3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="14.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="8.75" style="1" collapsed="1"/>
-    <col min="18" max="18" width="20.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="22" width="19.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.75" style="1" collapsed="1"/>
-    <col min="24" max="24" width="12.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="27" width="8.75" style="1" collapsed="1"/>
-    <col min="28" max="28" width="16.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="45" width="8.75" style="1" collapsed="1"/>
-    <col min="46" max="46" width="20.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="23.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="51" width="8.75" style="1" collapsed="1"/>
-    <col min="52" max="52" width="15.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="56" width="8.75" style="1" collapsed="1"/>
-    <col min="57" max="59" width="8.75" style="7" collapsed="1"/>
-    <col min="60" max="61" width="8.75" style="1" collapsed="1"/>
-    <col min="62" max="62" width="15.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="8.75" style="1" collapsed="1"/>
-    <col min="64" max="64" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="16.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="15.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="34" style="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="70" width="8.75" style="1" collapsed="1"/>
-    <col min="71" max="71" width="15.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="73" width="8.75" style="1" collapsed="1"/>
-    <col min="74" max="76" width="11.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="86" width="15.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="16.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="91" width="8.75" style="1" collapsed="1"/>
-    <col min="92" max="92" width="12.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="98" width="8.75" style="1" collapsed="1"/>
-    <col min="99" max="104" width="23.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="109" width="8.75" style="1" collapsed="1"/>
-    <col min="110" max="110" width="20.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="38.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="16384" width="8.75" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="23.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="48.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="9.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="12.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="8.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="11.625" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" style="1" width="14.75" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="18.25" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="25.75" collapsed="true"/>
+    <col min="16" max="17" style="1" width="8.75" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="19" max="22" customWidth="true" style="1" width="19.5" collapsed="true"/>
+    <col min="23" max="23" style="1" width="8.75" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="12.625" collapsed="true"/>
+    <col min="25" max="27" style="1" width="8.75" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="29" max="45" style="1" width="8.75" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="1" width="20.375" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="1" width="23.375" collapsed="true"/>
+    <col min="48" max="51" style="1" width="8.75" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" style="1" width="15.5" collapsed="true"/>
+    <col min="53" max="56" style="1" width="8.75" collapsed="true"/>
+    <col min="57" max="59" style="7" width="8.75" collapsed="true"/>
+    <col min="60" max="61" style="1" width="8.75" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" style="1" width="15.875" collapsed="true"/>
+    <col min="63" max="63" style="1" width="8.75" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="1" width="16.875" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="1" width="15.5" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" style="1" width="34.0" collapsed="true"/>
+    <col min="68" max="70" style="1" width="8.75" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="1" width="15.5" collapsed="true"/>
+    <col min="72" max="73" style="1" width="8.75" collapsed="true"/>
+    <col min="74" max="76" customWidth="true" style="1" width="11.5" collapsed="true"/>
+    <col min="77" max="86" customWidth="true" style="1" width="15.125" collapsed="true"/>
+    <col min="87" max="87" customWidth="true" style="1" width="16.75" collapsed="true"/>
+    <col min="88" max="91" style="1" width="8.75" collapsed="true"/>
+    <col min="92" max="99" customWidth="true" style="1" width="12.125" collapsed="true"/>
+    <col min="100" max="105" style="1" width="8.75" collapsed="true"/>
+    <col min="106" max="111" customWidth="true" style="1" width="23.375" collapsed="true"/>
+    <col min="112" max="116" style="1" width="8.75" collapsed="true"/>
+    <col min="117" max="117" customWidth="true" style="1" width="20.125" collapsed="true"/>
+    <col min="118" max="118" customWidth="true" style="1" width="38.125" collapsed="true"/>
+    <col min="119" max="16384" style="1" width="8.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113">
+    <row r="1" spans="1:120">
       <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
@@ -1449,32 +1497,39 @@
       <c r="CQ1" s="11"/>
       <c r="CR1" s="11"/>
       <c r="CS1" s="11"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
       <c r="CV1" s="11"/>
       <c r="CW1" s="11"/>
       <c r="CX1" s="11"/>
       <c r="CY1" s="11"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="DB1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="12"/>
+      <c r="DB1" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="DC1" s="11"/>
       <c r="DD1" s="11"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="8" t="s">
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="12"/>
+      <c r="DH1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="12"/>
+      <c r="DM1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="DG1" s="10" t="s">
+      <c r="DN1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
     </row>
-    <row r="2" spans="1:113" ht="15" customHeight="1">
+    <row r="2" spans="1:120" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -1659,10 +1714,10 @@
         <v>61</v>
       </c>
       <c r="BJ2" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="BL2" s="4" t="s">
         <v>101</v>
@@ -1707,34 +1762,34 @@
         <v>114</v>
       </c>
       <c r="BZ2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="CA2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="CB2" s="4" t="s">
+      <c r="CC2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="CC2" s="4" t="s">
+      <c r="CD2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="CD2" s="4" t="s">
+      <c r="CE2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="CE2" s="4" t="s">
+      <c r="CF2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CF2" s="4" t="s">
+      <c r="CG2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="CG2" s="4" t="s">
+      <c r="CH2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CI2" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="CI2" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="CJ2" s="4" t="s">
         <v>128</v>
@@ -1749,75 +1804,96 @@
         <v>131</v>
       </c>
       <c r="CN2" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CO2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="CU2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CV2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="CP2" s="4" t="s">
+      <c r="CW2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CQ2" s="4" t="s">
+      <c r="CX2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="CR2" s="4" t="s">
+      <c r="CY2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CS2" s="4" t="s">
+      <c r="CZ2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="CT2" s="4" t="s">
+      <c r="DA2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="CU2" s="4" t="s">
+      <c r="DB2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CV2" s="4" t="s">
+      <c r="DC2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CW2" s="4" t="s">
+      <c r="DD2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CX2" s="4" t="s">
+      <c r="DE2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CY2" s="4" t="s">
+      <c r="DF2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CZ2" s="4" t="s">
+      <c r="DG2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="DA2" s="4" t="s">
+      <c r="DH2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="DB2" s="4" t="s">
+      <c r="DI2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="DC2" s="4" t="s">
+      <c r="DJ2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="DD2" s="4" t="s">
+      <c r="DK2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="DE2" s="4" t="s">
+      <c r="DL2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="DF2" s="4" t="s">
+      <c r="DM2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="DG2" s="4" t="s">
+      <c r="DN2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="DH2" s="4" t="s">
+      <c r="DO2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DI2" s="4" t="s">
+      <c r="DP2" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:113">
+    <row r="3" spans="1:120">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>98</v>
@@ -1865,7 +1941,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1994,72 +2070,79 @@
         <v>7</v>
       </c>
       <c r="CN3" s="2"/>
-      <c r="CO3" s="2" t="s">
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="2"/>
+      <c r="CV3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="CP3" s="2" t="s">
+      <c r="CW3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="CQ3" s="2" t="s">
+      <c r="CX3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="CR3" s="2" t="s">
+      <c r="CY3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="CS3" s="2" t="s">
+      <c r="CZ3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="CT3" s="2" t="s">
+      <c r="DA3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="CU3" s="2"/>
-      <c r="CV3" s="2"/>
-      <c r="CW3" s="2"/>
-      <c r="CX3" s="2"/>
-      <c r="CY3" s="2"/>
-      <c r="CZ3" s="2"/>
-      <c r="DA3" s="2" t="s">
+      <c r="DB3" s="2"/>
+      <c r="DC3" s="2"/>
+      <c r="DD3" s="2"/>
+      <c r="DE3" s="2"/>
+      <c r="DF3" s="2"/>
+      <c r="DG3" s="2"/>
+      <c r="DH3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="DB3" s="2" t="s">
+      <c r="DI3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DC3" s="2"/>
-      <c r="DD3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DE3" s="2"/>
-      <c r="DF3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DG3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="DH3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="DI3" s="2" t="s">
-        <v>179</v>
+      <c r="DJ3" s="2"/>
+      <c r="DK3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="DL3" s="2"/>
+      <c r="DM3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="DN3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DO3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="DP3" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:113">
+    <row r="4" spans="1:120" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
@@ -2092,7 +2175,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -2174,31 +2257,31 @@
         <v>7</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CB4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="CC4" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="CD4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CE4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="CG4" s="2" t="s">
         <v>125</v>
       </c>
       <c r="CH4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CI4" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="CI4" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="CJ4" s="2" t="s">
         <v>63</v>
@@ -2212,64 +2295,83 @@
         <v>7</v>
       </c>
       <c r="CO4" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="CP4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="CQ4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="CU4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="CV4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="CW4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CX4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="CR4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CS4" s="2" t="s">
+      <c r="CZ4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="CT4" s="2"/>
-      <c r="CU4" s="2"/>
-      <c r="CV4" s="2"/>
-      <c r="CW4" s="2"/>
-      <c r="CX4" s="2"/>
-      <c r="CY4" s="2"/>
-      <c r="CZ4" s="2"/>
-      <c r="DA4" s="2" t="s">
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="2"/>
+      <c r="DF4" s="2"/>
+      <c r="DG4" s="2"/>
+      <c r="DH4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="DB4" s="2" t="s">
+      <c r="DI4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DC4" s="2"/>
-      <c r="DD4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DE4" s="2"/>
-      <c r="DF4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DG4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="DH4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="DI4" s="2" t="s">
-        <v>168</v>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="DL4" s="2"/>
+      <c r="DM4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="DN4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="DP4" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="DG1:DI1"/>
-    <mergeCell ref="CO1:CT1"/>
+    <mergeCell ref="DN1:DP1"/>
+    <mergeCell ref="CV1:DA1"/>
     <mergeCell ref="BA1:CI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="N1:W1"/>
     <mergeCell ref="Y1:AJ1"/>
     <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="DA1:DE1"/>
-    <mergeCell ref="CU1:CZ1"/>
-    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="DH1:DL1"/>
+    <mergeCell ref="DB1:DG1"/>
+    <mergeCell ref="CJ1:CU1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/FCCB_TBCL_YWX_data.xlsx
+++ b/TestData/FCCB_TBCL_YWX_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE94E3C-1C69-49E3-903E-E8623066E084}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75FACB0-0767-489F-A419-F0223E069A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="8475" windowWidth="21600" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -69,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>liu-b:</t>
@@ -78,6 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -116,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="274">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -638,46 +640,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ywx_xbdm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_jrbe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_bxje</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_bffl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_dqflbz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_ysbf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1134001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V1234567890098765</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,14 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ywx_tbzrs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,34 +796,370 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>06201901137202000000000655</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_YWX_1134_1_异常截屏_20200729035826343.png</t>
-  </si>
-  <si>
-    <t>未知异常Timed out after 10 seconds. Unable to locate the element</t>
-  </si>
-  <si>
-    <t>06201901134202000000000389</t>
-  </si>
-  <si>
-    <t>未知异常java.net.SocketTimeoutException: Read timed out
-Build info: version: '3.9.0', revision: '698b3178f0', time: '2018-02-05T14:26:55.441Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.91.235', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
-Driver info: driver.version: RemoteWebDriver</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_YWX_1137_1_异常截屏_20200729040928621.png</t>
-  </si>
-  <si>
-    <t>06201901134202000000000390</t>
-  </si>
-  <si>
-    <t>06201901137202000000000656</t>
+    <t>特殊条款信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tk_tkdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tk_tkxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、经投保人与保险公司充分协商，本保单所承保车辆使用性质为非营运。若车辆从事营运活动，保险公司不负赔偿责任。2、本保单附加意外伤害医疗费用保险，每人每次免赔100元后按90%比例赔付。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、经投保人与保险公司充分协商，本保单所承保车辆使用性质为非营运。若车辆从事营运活动，保险公司不负赔偿责任。2、本保单附加意外伤害医疗费用保险，每人每次免赔100元后按90%比例赔付。3、本保单附加意外伤害住院津贴保险，每人每次事故免赔3天，给付标准为50元/人/天，单次给付天数最高不超过90天，累计给付天数最高不超过180天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1134002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1134003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1137003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1137002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1137006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1137005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外险1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外险2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外险3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外险4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外险5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xbdm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_jrbe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_bxje1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_bffl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_dqflbz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_ysbf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xbdm2</t>
+  </si>
+  <si>
+    <t>ywx_jrbe2</t>
+  </si>
+  <si>
+    <t>ywx_bxje2</t>
+  </si>
+  <si>
+    <t>ywx_bffl2</t>
+  </si>
+  <si>
+    <t>ywx_dqflbz2</t>
+  </si>
+  <si>
+    <t>ywx_ysbf2</t>
+  </si>
+  <si>
+    <t>ywx_xbdm3</t>
+  </si>
+  <si>
+    <t>ywx_jrbe3</t>
+  </si>
+  <si>
+    <t>ywx_bxje3</t>
+  </si>
+  <si>
+    <t>ywx_bffl3</t>
+  </si>
+  <si>
+    <t>ywx_dqflbz3</t>
+  </si>
+  <si>
+    <t>ywx_ysbf3</t>
+  </si>
+  <si>
+    <t>ywx_xbdm4</t>
+  </si>
+  <si>
+    <t>ywx_jrbe4</t>
+  </si>
+  <si>
+    <t>ywx_bxje4</t>
+  </si>
+  <si>
+    <t>ywx_bffl4</t>
+  </si>
+  <si>
+    <t>ywx_dqflbz4</t>
+  </si>
+  <si>
+    <t>ywx_ysbf4</t>
+  </si>
+  <si>
+    <t>ywx_xbdm5</t>
+  </si>
+  <si>
+    <t>ywx_jrbe5</t>
+  </si>
+  <si>
+    <t>ywx_bxje5</t>
+  </si>
+  <si>
+    <t>ywx_bffl5</t>
+  </si>
+  <si>
+    <t>ywx_dqflbz5</t>
+  </si>
+  <si>
+    <t>ywx_ysbf5</t>
+  </si>
+  <si>
+    <t>意外险-限额1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外险1-免赔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本保单每次事故绝对免赔额为    元或损失金额的   %，两者以高者为准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外险2-免赔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外险2-限额1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次事故绝对免赔额  1000  元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天赔偿不超过200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06201901137202000000000671</t>
+  </si>
+  <si>
+    <t>ywx_xzmp1_dm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzmp1_sz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzmp1_fl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzmp1_bz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe1_dm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe1_lx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe1_bz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe1_xe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe1_rmk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次事故绝对免赔额  1001  元。</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>每天赔偿不超过201</t>
+  </si>
+  <si>
+    <t>ywx_xzmp2_dm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzmp2_sz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzmp2_fl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzmp2_bz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe2_dm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe2_lx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe2_bz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe2_xe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywx_xzxe2_rmk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06201901137202000000000672</t>
+  </si>
+  <si>
+    <t>06201901134202000000000410</t>
+  </si>
+  <si>
+    <t>06201901137202000000000673</t>
+  </si>
+  <si>
+    <t>06201901137202000000000674</t>
+  </si>
+  <si>
+    <t>06201901134202000000000411</t>
   </si>
 </sst>
 </file>
@@ -873,7 +1167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -909,19 +1203,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1015,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1032,6 +1313,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,10 +1614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:DP4"/>
+  <dimension ref="A1:FH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="DN1" workbookViewId="0">
+      <selection activeCell="DY3" sqref="DY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1376,160 +1663,223 @@
     <col min="77" max="86" customWidth="true" style="1" width="15.125" collapsed="true"/>
     <col min="87" max="87" customWidth="true" style="1" width="16.75" collapsed="true"/>
     <col min="88" max="91" style="1" width="8.75" collapsed="true"/>
-    <col min="92" max="99" customWidth="true" style="1" width="12.125" collapsed="true"/>
-    <col min="100" max="105" style="1" width="8.75" collapsed="true"/>
-    <col min="106" max="111" customWidth="true" style="1" width="23.375" collapsed="true"/>
-    <col min="112" max="116" style="1" width="8.75" collapsed="true"/>
-    <col min="117" max="117" customWidth="true" style="1" width="20.125" collapsed="true"/>
-    <col min="118" max="118" customWidth="true" style="1" width="38.125" collapsed="true"/>
-    <col min="119" max="16384" style="1" width="8.75" collapsed="true"/>
+    <col min="92" max="149" customWidth="true" style="1" width="12.125" collapsed="true"/>
+    <col min="150" max="155" customWidth="true" style="1" width="23.375" collapsed="true"/>
+    <col min="156" max="160" style="1" width="8.75" collapsed="true"/>
+    <col min="161" max="161" customWidth="true" style="1" width="20.125" collapsed="true"/>
+    <col min="162" max="162" customWidth="true" style="1" width="38.125" collapsed="true"/>
+    <col min="163" max="16384" style="1" width="8.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:164">
+      <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
       <c r="X1" s="5"/>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
       <c r="AK1" s="5"/>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13" t="s">
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="10" t="s">
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="15"/>
+      <c r="BT1" s="15"/>
+      <c r="BU1" s="15"/>
+      <c r="BV1" s="15"/>
+      <c r="BW1" s="15"/>
+      <c r="BX1" s="15"/>
+      <c r="BY1" s="15"/>
+      <c r="BZ1" s="15"/>
+      <c r="CA1" s="15"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
+      <c r="CJ1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="CK1" s="11"/>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="10" t="s">
+      <c r="CK1" s="15"/>
+      <c r="CL1" s="15"/>
+      <c r="CM1" s="15"/>
+      <c r="CN1" s="15"/>
+      <c r="CO1" s="15"/>
+      <c r="CP1" s="15"/>
+      <c r="CQ1" s="15"/>
+      <c r="CR1" s="15"/>
+      <c r="CS1" s="15"/>
+      <c r="CT1" s="15"/>
+      <c r="CU1" s="15"/>
+      <c r="CV1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="14"/>
+      <c r="DB1" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="DC1" s="15"/>
+      <c r="DD1" s="15"/>
+      <c r="DE1" s="15"/>
+      <c r="DF1" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="DG1" s="15"/>
+      <c r="DH1" s="15"/>
+      <c r="DI1" s="15"/>
+      <c r="DJ1" s="15"/>
+      <c r="DK1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="14"/>
+      <c r="DQ1" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="DR1" s="15"/>
+      <c r="DS1" s="15"/>
+      <c r="DT1" s="15"/>
+      <c r="DU1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="DV1" s="15"/>
+      <c r="DW1" s="15"/>
+      <c r="DX1" s="15"/>
+      <c r="DY1" s="15"/>
+      <c r="DZ1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="14"/>
+      <c r="EF1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="14"/>
+      <c r="EL1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="14"/>
+      <c r="ER1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="ES1" s="15"/>
+      <c r="ET1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="DC1" s="11"/>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="10" t="s">
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13"/>
+      <c r="EX1" s="13"/>
+      <c r="EY1" s="14"/>
+      <c r="EZ1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="12"/>
-      <c r="DM1" s="8" t="s">
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="14"/>
+      <c r="FE1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="DN1" s="10" t="s">
+      <c r="FF1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
     </row>
-    <row r="2" spans="1:120" ht="15" customHeight="1">
+    <row r="2" spans="1:164" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -1714,10 +2064,10 @@
         <v>61</v>
       </c>
       <c r="BJ2" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="BL2" s="4" t="s">
         <v>101</v>
@@ -1762,34 +2112,34 @@
         <v>114</v>
       </c>
       <c r="BZ2" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="CB2" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="CC2" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="CD2" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="CE2" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="CF2" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="CG2" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="CH2" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="CI2" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="CJ2" s="4" t="s">
         <v>128</v>
@@ -1804,111 +2154,243 @@
         <v>131</v>
       </c>
       <c r="CN2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR2" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="CO2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="CP2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CQ2" s="4" t="s">
+      <c r="CS2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="CU2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CV2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="CW2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="CX2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="CY2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CZ2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="DA2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="DH2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="DI2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DJ2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="DK2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="DL2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="DM2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="DN2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DO2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DP2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="DQ2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="DR2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="DS2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="DT2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="DU2" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="DV2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="DX2" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="DY2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="DZ2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EA2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="EB2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="EC2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="ED2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="EE2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="EG2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="EH2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="EI2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="EJ2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="EK2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="EL2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="EM2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="EN2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="EO2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="EP2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="EQ2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="ER2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="CR2" s="4" t="s">
+      <c r="ES2" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="CS2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="CT2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CU2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CV2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="CW2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="CX2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="CY2" s="4" t="s">
+      <c r="ET2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="EU2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="EV2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="EW2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="EX2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="EY2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="EZ2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="FA2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="FB2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="FC2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="FD2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="FE2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="FF2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="FG2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="FH2" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:164" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="CZ2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="DA2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="DB2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="DC2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="DD2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="DE2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="DF2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="DG2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="DH2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="DI2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="DJ2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="DK2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="DL2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="DM2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="DN2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="DO2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="DP2" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:120">
-      <c r="A3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
@@ -1941,7 +2423,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -2003,146 +2485,256 @@
         <v>21</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BU3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BV3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="CG3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BW3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BY3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="2"/>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
-      <c r="CI3" s="2"/>
+      <c r="CH3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="CJ3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="CK3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="CL3" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
       <c r="CM3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="CN3" s="2"/>
-      <c r="CO3" s="2"/>
-      <c r="CP3" s="2"/>
-      <c r="CQ3" s="2"/>
-      <c r="CR3" s="2"/>
+      <c r="CN3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="CP3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR3" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="CS3" s="2"/>
-      <c r="CT3" s="2"/>
-      <c r="CU3" s="2"/>
+      <c r="CT3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CU3" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="CV3" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="CW3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="CX3" s="2" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="CY3" s="2" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="CZ3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="DA3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DB3" s="2"/>
-      <c r="DC3" s="2"/>
-      <c r="DD3" s="2"/>
-      <c r="DE3" s="2"/>
+      <c r="DA3" s="2"/>
+      <c r="DB3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DD3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE3" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="DF3" s="2"/>
       <c r="DG3" s="2"/>
-      <c r="DH3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="DI3" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="DH3" s="2"/>
+      <c r="DI3" s="2"/>
       <c r="DJ3" s="2"/>
       <c r="DK3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="DL3" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="DL3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="DM3" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="DN3" s="2" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="DO3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="DP3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP3" s="2"/>
+      <c r="DQ3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DS3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="DT3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="DU3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="DV3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="DX3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="DY3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DZ3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="EA3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="ED3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EE3" s="2"/>
+      <c r="EF3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="EG3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EH3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EI3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="EJ3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EK3" s="2"/>
+      <c r="EL3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="EM3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EN3" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="EO3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EQ3" s="2"/>
+      <c r="ER3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="ES3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="ET3" s="2"/>
+      <c r="EU3" s="2"/>
+      <c r="EV3" s="2"/>
+      <c r="EW3" s="2"/>
+      <c r="EX3" s="2"/>
+      <c r="EY3" s="2"/>
+      <c r="EZ3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="FA3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="FB3" s="2"/>
+      <c r="FC3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD3" s="2"/>
+      <c r="FE3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="FF3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="FG3" s="2"/>
+      <c r="FH3" s="2"/>
     </row>
-    <row r="4" spans="1:120" ht="14.25" customHeight="1">
+    <row r="4" spans="1:164">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
@@ -2175,7 +2767,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -2237,131 +2829,227 @@
         <v>21</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="CB4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="CC4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CD4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CE4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CG4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="CH4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="CI4" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="BW4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BY4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
       <c r="CJ4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="CK4" s="2"/>
-      <c r="CL4" s="2"/>
+      <c r="CK4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="CM4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="CN4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CO4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="CP4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="CR4" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
       <c r="CS4" s="2"/>
-      <c r="CT4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="CU4" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
       <c r="CV4" s="2" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="CW4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="CX4" s="2" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="CY4" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="CZ4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="DA4" s="2"/>
-      <c r="DB4" s="2"/>
-      <c r="DC4" s="2"/>
-      <c r="DD4" s="2"/>
-      <c r="DE4" s="2"/>
+      <c r="DB4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="DC4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DD4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE4" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="DF4" s="2"/>
       <c r="DG4" s="2"/>
-      <c r="DH4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="DI4" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="DH4" s="2"/>
+      <c r="DI4" s="2"/>
       <c r="DJ4" s="2"/>
       <c r="DK4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="DL4" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="DL4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="DM4" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="DN4" s="2" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="DO4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="DP4" s="2" t="s">
-        <v>191</v>
+        <v>7</v>
+      </c>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DS4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="DT4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="DU4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="DV4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="DX4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DY4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="DZ4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="EA4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="EC4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="ED4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2"/>
+      <c r="EG4" s="2"/>
+      <c r="EH4" s="2"/>
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4" s="2"/>
+      <c r="EL4" s="2"/>
+      <c r="EM4" s="2"/>
+      <c r="EN4" s="2"/>
+      <c r="EO4" s="2"/>
+      <c r="EP4" s="2"/>
+      <c r="EQ4" s="2"/>
+      <c r="ER4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="ES4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="ET4" s="2"/>
+      <c r="EU4" s="2"/>
+      <c r="EV4" s="2"/>
+      <c r="EW4" s="2"/>
+      <c r="EX4" s="2"/>
+      <c r="EY4" s="2"/>
+      <c r="EZ4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="FA4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="FB4" s="2"/>
+      <c r="FC4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD4" s="2"/>
+      <c r="FE4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="FF4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="FG4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FH4" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="DN1:DP1"/>
+  <mergeCells count="20">
+    <mergeCell ref="DF1:DJ1"/>
+    <mergeCell ref="DQ1:DT1"/>
+    <mergeCell ref="DU1:DY1"/>
+    <mergeCell ref="ER1:ES1"/>
+    <mergeCell ref="FF1:FH1"/>
     <mergeCell ref="CV1:DA1"/>
     <mergeCell ref="BA1:CI1"/>
     <mergeCell ref="A1:D1"/>
@@ -2369,9 +3057,14 @@
     <mergeCell ref="N1:W1"/>
     <mergeCell ref="Y1:AJ1"/>
     <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="DB1:DG1"/>
+    <mergeCell ref="EZ1:FD1"/>
+    <mergeCell ref="ET1:EY1"/>
     <mergeCell ref="CJ1:CU1"/>
+    <mergeCell ref="DK1:DP1"/>
+    <mergeCell ref="DZ1:EE1"/>
+    <mergeCell ref="EF1:EK1"/>
+    <mergeCell ref="EL1:EQ1"/>
+    <mergeCell ref="DB1:DE1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
